--- a/biology/Botanique/Anobiidae/Anobiidae.xlsx
+++ b/biology/Botanique/Anobiidae/Anobiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les anobides (Anobiidae) constituent une famille d'insectes coléoptères. Les larves d'un certain nombre d'espèces creusent ou forent le bois, gagnant ainsi le nom d'« insectes foreurs ». Quelques espèces sont ravageuses, engendrant des dégâts importants aux meubles ou aux charpentes, telles la petite vrillette (Anobium punctatum), et la grosse vrillette (Xestobium rufovillosum).
 Cette famille a été créée en 1821 par le révérend John Fleming (1785-1857).
@@ -512,7 +524,9 @@
           <t>Sous-familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette famille comprend les sous-familles &amp; genres suivants :
 Alvarenganiellinae Viana and Martinez, 1971
